--- a/Primera Entrega/Clase 9 - Cierre Estructuras/Alumnos/Git_y_Github_Bustamante_oliver/Actividad clase 9.xlsx
+++ b/Primera Entrega/Clase 9 - Cierre Estructuras/Alumnos/Git_y_Github_Bustamante_oliver/Actividad clase 9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Bustamante_Oliver\Mochila_1022C1PT\Primera Entrega\Clase 9 - Cierre Estructuras\Alumnos\Git_y_Github_Bustamante_oliver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C727E9AD-C11B-475D-98EF-361A49E8188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC6B55-EC94-4404-9438-462CD45543C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <r>
       <rPr>
@@ -336,6 +336,45 @@
   </si>
   <si>
     <t>Disco Duro Sata 500Gb Usado 3.5"</t>
+  </si>
+  <si>
+    <t>Gigabyte B450M DS3H</t>
+  </si>
+  <si>
+    <t>CMS C113 - Memoria RAM de 16 GB</t>
+  </si>
+  <si>
+    <t>Western Digital WD10EZEX 1TB</t>
+  </si>
+  <si>
+    <t>Intel core i3 2100</t>
+  </si>
+  <si>
+    <t>Gigabyte B450m Ds3h V2 Micro Atx Am4</t>
+  </si>
+  <si>
+    <t>Crucial 4GB Single DDR4 3200 MT/s (PC4-25600) CL22 SR x16 UDIMM 288 CT4G4DFS632A</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 3600 6-core 12-Thread Unlocked Wraith Stealth Cooler 100-100000031BOX</t>
+  </si>
+  <si>
+    <t>Toshiba MK2001TRKB 2TB SAS 7200rpm 16MB Enterprise Hard Drive 3.5"</t>
+  </si>
+  <si>
+    <t>ASROCK H410M-HDV/M.2 Socket 1200 Micro ATX</t>
+  </si>
+  <si>
+    <t>Crucial 4GB Single DDR4 2666 MT/s (PC4-21300) CL19 x16 UDIMM 288-Pin - CT4G4DFS6266</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3060</t>
+  </si>
+  <si>
+    <t>MSI A320M-A PRO MAX AM4 DDR4 HDMI DVI M.2 USB 3 Micro-ATX</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7700</t>
   </si>
 </sst>
 </file>
@@ -769,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,18 +919,25 @@
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -909,7 +955,9 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="16"/>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -923,7 +971,9 @@
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>3</v>
@@ -937,7 +987,9 @@
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="16"/>
       <c r="D21" s="1" t="s">
         <v>4</v>
@@ -951,7 +1003,9 @@
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>5</v>
@@ -988,7 +1042,9 @@
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1004,14 +1060,18 @@
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1053,7 +1113,9 @@
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C39" s="16"/>
       <c r="D39" s="3" t="s">
         <v>18</v>
@@ -1067,7 +1129,9 @@
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="16"/>
       <c r="D40" s="1" t="s">
         <v>4</v>
@@ -1081,7 +1145,9 @@
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C41" s="16"/>
       <c r="D41" s="3" t="s">
         <v>5</v>
@@ -1095,7 +1161,9 @@
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" s="16"/>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -1125,28 +1193,36 @@
       <c r="A48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C51" s="16"/>
     </row>
   </sheetData>
